--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cd9-L1cam.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cd9-L1cam.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>73.8738626959102</v>
+        <v>116.9511416666667</v>
       </c>
       <c r="H2">
-        <v>73.8738626959102</v>
+        <v>350.853425</v>
       </c>
       <c r="I2">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="J2">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="N2">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="O2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="P2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="Q2">
-        <v>942.3338267869062</v>
+        <v>2642.496699951622</v>
       </c>
       <c r="R2">
-        <v>942.3338267869062</v>
+        <v>23782.4702995646</v>
       </c>
       <c r="S2">
-        <v>0.1904134692236107</v>
+        <v>0.3045872110244155</v>
       </c>
       <c r="T2">
-        <v>0.1904134692236107</v>
+        <v>0.3045872110244155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>73.8738626959102</v>
+        <v>116.9511416666667</v>
       </c>
       <c r="H3">
-        <v>73.8738626959102</v>
+        <v>350.853425</v>
       </c>
       <c r="I3">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="J3">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="N3">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="O3">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="P3">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="Q3">
-        <v>18.66754257274216</v>
+        <v>35.62316181681111</v>
       </c>
       <c r="R3">
-        <v>18.66754257274216</v>
+        <v>320.6084563513</v>
       </c>
       <c r="S3">
-        <v>0.00377207253110642</v>
+        <v>0.004106101440297955</v>
       </c>
       <c r="T3">
-        <v>0.00377207253110642</v>
+        <v>0.004106101440297955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>73.8738626959102</v>
+        <v>116.9511416666667</v>
       </c>
       <c r="H4">
-        <v>73.8738626959102</v>
+        <v>350.853425</v>
       </c>
       <c r="I4">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="J4">
-        <v>0.3073410630172237</v>
+        <v>0.411881549221027</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="N4">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="O4">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="P4">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="Q4">
-        <v>559.993344001019</v>
+        <v>895.2266058226834</v>
       </c>
       <c r="R4">
-        <v>559.993344001019</v>
+        <v>8057.03945240415</v>
       </c>
       <c r="S4">
-        <v>0.1131555212625065</v>
+        <v>0.1031882367563134</v>
       </c>
       <c r="T4">
-        <v>0.1131555212625065</v>
+        <v>0.1031882367563134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>132.813867075176</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="H5">
-        <v>132.813867075176</v>
+        <v>399.226144</v>
       </c>
       <c r="I5">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="J5">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="N5">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="O5">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="P5">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="Q5">
-        <v>1694.171592549565</v>
+        <v>3006.821917313223</v>
       </c>
       <c r="R5">
-        <v>1694.171592549565</v>
+        <v>27061.39725581901</v>
       </c>
       <c r="S5">
-        <v>0.3423341932841402</v>
+        <v>0.346581133614391</v>
       </c>
       <c r="T5">
-        <v>0.3423341932841402</v>
+        <v>0.346581133614391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>132.813867075176</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="H6">
-        <v>132.813867075176</v>
+        <v>399.226144</v>
       </c>
       <c r="I6">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="J6">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="N6">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="O6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="P6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="Q6">
-        <v>33.5613764787424</v>
+        <v>40.53458372029156</v>
       </c>
       <c r="R6">
-        <v>33.5613764787424</v>
+        <v>364.811253482624</v>
       </c>
       <c r="S6">
-        <v>0.006781607478771056</v>
+        <v>0.004672216167999497</v>
       </c>
       <c r="T6">
-        <v>0.006781607478771056</v>
+        <v>0.004672216167999497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>132.813867075176</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="H7">
-        <v>132.813867075176</v>
+        <v>399.226144</v>
       </c>
       <c r="I7">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="J7">
-        <v>0.5525520610494985</v>
+        <v>0.468668312644395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="N7">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="O7">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="P7">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="Q7">
-        <v>1006.782085556928</v>
+        <v>1018.652919944555</v>
       </c>
       <c r="R7">
-        <v>1006.782085556928</v>
+        <v>9167.876279500992</v>
       </c>
       <c r="S7">
-        <v>0.2034362602865872</v>
+        <v>0.1174149628620045</v>
       </c>
       <c r="T7">
-        <v>0.2034362602865872</v>
+        <v>0.1174149628620045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.6767108626414</v>
+        <v>33.91710566666666</v>
       </c>
       <c r="H8">
-        <v>33.6767108626414</v>
+        <v>101.751317</v>
       </c>
       <c r="I8">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="J8">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="N8">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="O8">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="P8">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="Q8">
-        <v>429.5795923305082</v>
+        <v>766.3528420400381</v>
       </c>
       <c r="R8">
-        <v>429.5795923305082</v>
+        <v>6897.175578360344</v>
       </c>
       <c r="S8">
-        <v>0.08680335795884969</v>
+        <v>0.08833361071818295</v>
       </c>
       <c r="T8">
-        <v>0.08680335795884969</v>
+        <v>0.08833361071818295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.6767108626414</v>
+        <v>33.91710566666666</v>
       </c>
       <c r="H9">
-        <v>33.6767108626414</v>
+        <v>101.751317</v>
       </c>
       <c r="I9">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="J9">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="N9">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="O9">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="P9">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="Q9">
-        <v>8.509930451668268</v>
+        <v>10.33110516325911</v>
       </c>
       <c r="R9">
-        <v>8.509930451668268</v>
+        <v>92.97994646933201</v>
       </c>
       <c r="S9">
-        <v>0.001719566181423128</v>
+        <v>0.001190814167728059</v>
       </c>
       <c r="T9">
-        <v>0.001719566181423128</v>
+        <v>0.001190814167728059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.6767108626414</v>
+        <v>33.91710566666666</v>
       </c>
       <c r="H10">
-        <v>33.6767108626414</v>
+        <v>101.751317</v>
       </c>
       <c r="I10">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="J10">
-        <v>0.1401068759332778</v>
+        <v>0.119450138134578</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="N10">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="O10">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="P10">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="Q10">
-        <v>255.2829003751289</v>
+        <v>259.6254722492673</v>
       </c>
       <c r="R10">
-        <v>255.2829003751289</v>
+        <v>2336.629250243406</v>
       </c>
       <c r="S10">
-        <v>0.051583951793005</v>
+        <v>0.02992571324866701</v>
       </c>
       <c r="T10">
-        <v>0.051583951793005</v>
+        <v>0.02992571324866701</v>
       </c>
     </row>
   </sheetData>
